--- a/POLISH2/bin/Debug/system_value.xlsx
+++ b/POLISH2/bin/Debug/system_value.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\课程\抛光\软件改动版本\2021-913\POLISH2-Z\POLISH2\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBDF3F5-EA1F-43B1-B37C-0CF175C5944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,11 +476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -865,7 +866,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>220202</v>
+        <v>220703</v>
       </c>
     </row>
   </sheetData>
